--- a/0_document/sample/기능 정리.xlsx
+++ b/0_document/sample/기능 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HeungDeveloperTools\0_Project_Workspace\Rise-Up-With-BigFoot\0_document\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3809C6-58F2-4DF2-8144-D08E187148CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B712299-CDD8-429F-828F-4263C7000FF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1455" windowWidth="24390" windowHeight="13260" xr2:uid="{3B9BC097-22C7-41ED-A843-DC892141FCD0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TODO List</t>
   </si>
@@ -85,13 +85,17 @@
     <t>NAS 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>filter grayscale 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="\-"/>
+    <numFmt numFmtId="176" formatCode="\-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -155,7 +159,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -537,7 +541,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1"/>
@@ -682,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f>IF(COUNTA(C3)&lt;&gt;0,"-","")</f>
+        <f t="shared" ref="B3:B10" si="0">IF(COUNTA(C3)&lt;&gt;0,"-","")</f>
         <v>-</v>
       </c>
       <c r="C3" t="s">
@@ -702,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>IF(COUNTA(C4)&lt;&gt;0,"-","")</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="C4" t="s">
@@ -712,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="P4" s="4" t="str">
-        <f t="shared" ref="P4:P16" si="0">IF($O:$O="","",INDEX($A:$C,$O:$O,3))</f>
+        <f t="shared" ref="P4:P16" si="1">IF($O:$O="","",INDEX($A:$C,$O:$O,3))</f>
         <v>게시판 페이지 프레임 만들기</v>
       </c>
     </row>
@@ -722,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f>IF(COUNTA(C5)&lt;&gt;0,"-","")</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="C5" t="s">
@@ -732,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="P5" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>블로그 페이지 프레임 만들기</v>
       </c>
     </row>
@@ -742,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>IF(COUNTA(C6)&lt;&gt;0,"-","")</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="C6" t="s">
@@ -752,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(side Project) QRcode 생성기</v>
       </c>
     </row>
@@ -762,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>IF(COUNTA(C7)&lt;&gt;0,"-","")</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="C7" t="s">
@@ -772,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="P7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NAS 만들기</v>
       </c>
     </row>
@@ -782,14 +786,14 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>IF(COUNTA(C8)&lt;&gt;0,"-","")</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="P8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -799,14 +803,14 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>IF(COUNTA(C9)&lt;&gt;0,"-","")</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="P9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -816,14 +820,14 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>IF(COUNTA(C10)&lt;&gt;0,"-","")</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="P10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -833,14 +837,14 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f t="shared" ref="B11:B16" si="1">IF(COUNTA(C11)&lt;&gt;0,"-","")</f>
+        <f t="shared" ref="B11:B16" si="2">IF(COUNTA(C11)&lt;&gt;0,"-","")</f>
         <v>-</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="P11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -850,14 +854,14 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -867,13 +871,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
     </row>
     <row r="14" spans="1:29" ht="28.35" customHeight="1">
       <c r="A14" s="2">
@@ -881,13 +888,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P14" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
     </row>
     <row r="15" spans="1:29" ht="28.35" customHeight="1">
       <c r="A15" s="2">
@@ -895,13 +902,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P15" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
     </row>
     <row r="16" spans="1:29" ht="28.35" customHeight="1">
       <c r="A16" s="2">
@@ -909,11 +916,11 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P16" s="4" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>

--- a/0_document/sample/기능 정리.xlsx
+++ b/0_document/sample/기능 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HeungDeveloperTools\0_Project_Workspace\Rise-Up-With-BigFoot\0_document\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B712299-CDD8-429F-828F-4263C7000FF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0ECB47-1C5D-48EB-ADD1-5283883EA0C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1455" windowWidth="24390" windowHeight="13260" xr2:uid="{3B9BC097-22C7-41ED-A843-DC892141FCD0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TODO List</t>
   </si>
@@ -88,6 +88,9 @@
   <si>
     <t>filter grayscale 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es6 호환 가능하게 babel사용</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1"/>
@@ -889,7 +892,10 @@
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
       </c>
       <c r="P14" s="4" t="str">
         <f t="shared" si="1"/>

--- a/0_document/sample/기능 정리.xlsx
+++ b/0_document/sample/기능 정리.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HeungDeveloperTools\0_Project_Workspace\Rise-Up-With-BigFoot\0_document\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0ECB47-1C5D-48EB-ADD1-5283883EA0C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5DECD1-12FB-4295-AD3A-015B5A2C6128}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1455" windowWidth="24390" windowHeight="13260" xr2:uid="{3B9BC097-22C7-41ED-A843-DC892141FCD0}"/>
+    <workbookView xWindow="15585" yWindow="1440" windowWidth="17190" windowHeight="13260" xr2:uid="{3B9BC097-22C7-41ED-A843-DC892141FCD0}"/>
   </bookViews>
   <sheets>
     <sheet name="메모" sheetId="1" r:id="rId1"/>
-    <sheet name="Information Architecture" sheetId="4" r:id="rId2"/>
+    <sheet name="Information Architecture(Map)" sheetId="4" r:id="rId2"/>
     <sheet name="User Interface" sheetId="5" r:id="rId3"/>
     <sheet name="blank3" sheetId="3" r:id="rId4"/>
     <sheet name="blank4" sheetId="6" r:id="rId5"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TODO List</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>es6 호환 가능하게 babel사용</t>
+  </si>
+  <si>
+    <t>변경이 잦아서 지움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 때 그 때 수정하면서 맞추기로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록 캡쳐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -189,16 +201,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -227,7 +239,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3571875" y="400050"/>
+          <a:off x="3771900" y="1343025"/>
           <a:ext cx="1162050" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -235,6 +247,2917 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144026</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC09194A-69D5-45FA-8339-FB6A8A28DB22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="60" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2800350" y="1905000"/>
+          <a:ext cx="971550" cy="353576"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>188346</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>333425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160455</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31406</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="직선 화살표 연결선 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB7EFAD-69CB-4933-B437-D22D672D9751}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="60" idx="3"/>
+          <a:endCxn id="70" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="874146" y="2447975"/>
+          <a:ext cx="657909" cy="402831"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>235294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>244266</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E7A434-368F-4BC1-85C5-6F6FB45D6C42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="69" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4933950" y="1644994"/>
+          <a:ext cx="796716" cy="260006"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>290249</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>149569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160455</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>307052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="직선 화살표 연결선 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83101C0C-51A9-43AE-8962-DBD1B1D84100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="60" idx="1"/>
+          <a:endCxn id="67" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1318949" y="1559269"/>
+          <a:ext cx="213106" cy="509908"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1485900" cy="535702"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="타원 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCAFB99D-8DA1-4FC5-934D-BBB31F044F81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="1990725"/>
+          <a:ext cx="1485900" cy="535702"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Introduce</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1400175" cy="409575"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="타원 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3228DECF-4F7A-4EF6-BF11-223BC09ACE0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="1209675"/>
+          <a:ext cx="1400175" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>contact me</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1352549" cy="819150"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="타원 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A383D1-86BE-469D-A081-009D310882B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="114300"/>
+          <a:ext cx="1352549" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> etc.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="409575"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="타원 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D1460E-CA02-4981-BE67-A8FC629F117C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591176" y="1295400"/>
+          <a:ext cx="952500" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600075" cy="409575"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="타원 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A5BEC2-29AD-4326-94C1-0591F028436A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="2790825"/>
+          <a:ext cx="600075" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>blog</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1943100" cy="885826"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="타원 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7743B9FE-095B-4F19-B733-8710AA4DAC18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="1428749"/>
+          <a:ext cx="1943100" cy="885826"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>service:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> web crawler</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2400" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1685925" cy="904875"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="타원 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F56203-4103-405F-8613-60466C8900A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229475" y="2762250"/>
+          <a:ext cx="1685925" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>service: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>myboard</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>231986</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>188551</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>298106</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="직선 화살표 연결선 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971CF83A-8A7B-42C5-B4CE-B3AA5E88A4B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="69" idx="7"/>
+          <a:endCxn id="68" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6404186" y="813488"/>
+          <a:ext cx="1328165" cy="541893"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>275473</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>75366</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="직선 화살표 연결선 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8680149F-BE55-4AF8-B6ED-3E7FD9F6A8E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="69" idx="4"/>
+          <a:endCxn id="119" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067426" y="1704975"/>
+          <a:ext cx="1408947" cy="1189791"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="직선 화살표 연결선 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EA5B51-8FBD-4EDB-9A3E-47A4E6438463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="69" idx="6"/>
+          <a:endCxn id="118" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543676" y="1500188"/>
+          <a:ext cx="714374" cy="371474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1619250" cy="847724"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="타원 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D9A938-4FCA-4973-B1EB-6B7A6DAA2019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409701" y="419101"/>
+          <a:ext cx="1619250" cy="847724"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>project</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>infomation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="직선 화살표 연결선 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92999C44-D826-4E55-9CED-D9FB75EFC70F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="60" idx="0"/>
+          <a:endCxn id="144" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2057400" y="1266825"/>
+          <a:ext cx="161926" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="직선 화살표 연결선 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584F7663-B91B-4316-A7D8-09763316BD59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="144" idx="6"/>
+          <a:endCxn id="69" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028951" y="842963"/>
+          <a:ext cx="2562225" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>188346</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>321019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="257" name="직선 화살표 연결선 256">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E62F3B3-64C7-4D0B-A5DD-7463E61E492B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="264" idx="2"/>
+          <a:endCxn id="70" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="874146" y="3140419"/>
+          <a:ext cx="2297679" cy="1469681"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1285875" cy="457200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="타원 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612D631D-F6AD-4386-947E-7E9C53FBCE86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="4381500"/>
+          <a:ext cx="1285875" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>comment</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="962025" cy="390525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="265" name="타원 264">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1956DC2-9225-4F93-9A7F-587CF6BA53B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="2914650"/>
+          <a:ext cx="962025" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>board</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>290513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>44598</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28739</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="266" name="직선 화살표 연결선 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7689EEFF-3ABA-4B52-9CDB-D115C0020A99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="360" idx="1"/>
+          <a:endCxn id="265" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4505325" y="3109913"/>
+          <a:ext cx="682773" cy="90651"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>141043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>44598</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="271" name="직선 화살표 연결선 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6677AD85-88F9-4486-B1CF-FAD3C9266AF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="360" idx="3"/>
+          <a:endCxn id="264" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4457700" y="3665293"/>
+          <a:ext cx="730398" cy="944807"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>290513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="284" name="직선 화살표 연결선 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{390B987F-CF20-417C-B1A7-64327B960543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="265" idx="2"/>
+          <a:endCxn id="70" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="962025" y="2995613"/>
+          <a:ext cx="2581275" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="962025" cy="390525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="292" name="타원 291">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1EC0AEB-FB8B-44FE-A6B8-A02B1385EC6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="3248025"/>
+          <a:ext cx="962025" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: read</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>316315</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>255185</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133391</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="303" name="직선 화살표 연결선 302">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FE118A-9235-4FB2-8ADB-923A3410F797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="265" idx="3"/>
+          <a:endCxn id="292" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3059515" y="3247984"/>
+          <a:ext cx="624670" cy="57232"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="895350" cy="457200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="타원 327">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD0D6B9-0244-4FC6-8B87-117B12BB31CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638426" y="3743325"/>
+          <a:ext cx="895350" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CRUD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316555</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>256895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="331" name="직선 화살표 연결선 330">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B38A934-105F-407C-94A0-561F21C7BC15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="264" idx="0"/>
+          <a:endCxn id="328" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3402655" y="4133570"/>
+          <a:ext cx="412108" cy="247930"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1181100" cy="657225"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="341" name="타원 340">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB04EBB1-6FFA-409A-90E9-D37AD4095A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829551" y="4057650"/>
+          <a:ext cx="1181100" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>appStore</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>96002</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="342" name="직선 화살표 연결선 341">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1ACC70-D7D5-4D40-BB2B-348F786E5EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="119" idx="5"/>
+          <a:endCxn id="341" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8420101" y="3534609"/>
+          <a:ext cx="248401" cy="523041"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151649</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>284916</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1610476" cy="657225"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="360" name="타원 359">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCC04AD-2FB5-4122-8156-042F21C25AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4952249" y="3104316"/>
+          <a:ext cx="1610476" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>membership</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>261104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="361" name="직선 화살표 연결선 360">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3335F74-89E1-47FD-8D72-AA3BC2C33B13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="119" idx="2"/>
+          <a:endCxn id="360" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6562725" y="3214688"/>
+          <a:ext cx="666750" cy="218241"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>154676</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>141043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>237053</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="427" name="직선 화살표 연결선 426">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EE8EE1-F1C5-4BEE-AD02-DB363155317E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="360" idx="5"/>
+          <a:endCxn id="430" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6326876" y="3665293"/>
+          <a:ext cx="768177" cy="306912"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="838200" cy="457200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="430" name="타원 429">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C1F411-C9F7-4702-AC8B-FDBB62ED3171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972301" y="3905250"/>
+          <a:ext cx="838200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sign</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="838200" cy="457200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="434" name="타원 433">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0801BBE6-CA1B-4205-9AA7-00DD83065644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="4648200"/>
+          <a:ext cx="838200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: up</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2800" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="838200" cy="457200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="435" name="타원 434">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E102DE-6664-4FE3-8DAB-457238AF9E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="5095875"/>
+          <a:ext cx="838200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: in</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2800" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>143949</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="436" name="직선 화살표 연결선 435">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E21C88-FD4C-42C6-B9CD-D6A825A490E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="430" idx="5"/>
+          <a:endCxn id="435" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7687749" y="4295495"/>
+          <a:ext cx="84651" cy="800380"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="439" name="직선 화살표 연결선 438">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100F0F37-4AF3-4696-AA0A-5D956E2A8D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="430" idx="4"/>
+          <a:endCxn id="434" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7267575" y="4362450"/>
+          <a:ext cx="123826" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1028700" cy="457200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="480" name="타원 479">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEACF2B0-74B5-43B3-8E81-3A406BCD98C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="4876800"/>
+          <a:ext cx="1028700" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>U</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>변경</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>271087</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>237291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86559</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="509" name="직선 화살표 연결선 508">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6A9A24-E29C-42BB-9996-AE75302BF808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="360" idx="4"/>
+          <a:endCxn id="512" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5757487" y="3761541"/>
+          <a:ext cx="57525" cy="201693"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86559</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1228726" cy="457200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="512" name="타원 511">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE10903-ADFC-479E-AF09-0C986A5D54EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200649" y="3963234"/>
+          <a:ext cx="1228726" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>상세조회</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>124379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>237092</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="513" name="직선 화살표 연결선 512">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC790EFC-E266-44A2-AF56-A7502602620C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="512" idx="3"/>
+          <a:endCxn id="480" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5095875" y="4353479"/>
+          <a:ext cx="284717" cy="523321"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>343734</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="942975" cy="457200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="514" name="타원 513">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F9620D-92A8-4419-82A4-6E69BDDDC5EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819774" y="4925259"/>
+          <a:ext cx="942975" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="36000" rIns="0" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>탈퇴</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>77232</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>124379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>343734</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="515" name="직선 화살표 연결선 514">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5793F6CD-0F6D-4747-A23B-101C93F73E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="512" idx="5"/>
+          <a:endCxn id="514" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6249432" y="4353479"/>
+          <a:ext cx="41830" cy="571780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="557" name="사각형: 둥근 모서리 556">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17862CE-EDA7-4C6A-94A4-F0DD84AAB986}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="2466975"/>
+          <a:ext cx="1190625" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
+            <a:t>Index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" baseline="0"/>
+            <a:t> page</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -544,7 +3467,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1"/>
@@ -795,9 +3718,12 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
+      <c r="O8" s="3">
+        <v>15</v>
+      </c>
       <c r="P8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>기록 캡쳐</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="28.35" customHeight="1">
@@ -909,7 +3835,10 @@
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
       </c>
       <c r="P15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -943,14 +3872,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79B159B-6801-41C0-97A4-C022D59230FA}">
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B2" sqref="B2"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1"/>
@@ -958,225 +3883,42 @@
     <col min="1" max="1" width="4.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A1" s="2">
-        <f>COLUMN()</f>
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
-        <f>COLUMN()</f>
-        <v>2</v>
-      </c>
-      <c r="C1" s="2">
-        <f>COLUMN()</f>
-        <v>3</v>
-      </c>
-      <c r="D1" s="2">
-        <f>COLUMN()</f>
-        <v>4</v>
-      </c>
-      <c r="E1" s="2">
-        <f>COLUMN()</f>
-        <v>5</v>
-      </c>
-      <c r="F1" s="2">
-        <f>COLUMN()</f>
-        <v>6</v>
-      </c>
-      <c r="G1" s="2">
-        <f>COLUMN()</f>
-        <v>7</v>
-      </c>
-      <c r="H1" s="2">
-        <f>COLUMN()</f>
-        <v>8</v>
-      </c>
-      <c r="I1" s="2">
-        <f>COLUMN()</f>
-        <v>9</v>
-      </c>
-      <c r="J1" s="2">
-        <f>COLUMN()</f>
-        <v>10</v>
-      </c>
-      <c r="K1" s="2">
-        <f>COLUMN()</f>
-        <v>11</v>
-      </c>
-      <c r="L1" s="2">
-        <f>COLUMN()</f>
-        <v>12</v>
-      </c>
-      <c r="M1" s="2">
-        <f>COLUMN()</f>
-        <v>13</v>
-      </c>
-      <c r="N1" s="2">
-        <f>COLUMN()</f>
-        <v>14</v>
-      </c>
-      <c r="O1" s="2">
-        <f>COLUMN()</f>
-        <v>15</v>
-      </c>
-      <c r="P1" s="2">
-        <f>COLUMN()</f>
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2">
-        <f>COLUMN()</f>
-        <v>17</v>
-      </c>
-      <c r="R1" s="2">
-        <f>COLUMN()</f>
-        <v>18</v>
-      </c>
-      <c r="S1" s="2">
-        <f>COLUMN()</f>
-        <v>19</v>
-      </c>
-      <c r="T1" s="2">
-        <f>COLUMN()</f>
-        <v>20</v>
-      </c>
-      <c r="U1" s="2">
-        <f>COLUMN()</f>
-        <v>21</v>
-      </c>
-      <c r="V1" s="2">
-        <f>COLUMN()</f>
-        <v>22</v>
-      </c>
-      <c r="W1" s="2">
-        <f>COLUMN()</f>
-        <v>23</v>
-      </c>
-      <c r="X1" s="2">
-        <f>COLUMN()</f>
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2">
-        <f>COLUMN()</f>
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2">
-        <f>COLUMN()</f>
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2">
-        <f>COLUMN()</f>
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2">
-        <f>COLUMN()</f>
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2">
-        <f>COLUMN()</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A2" s="2">
-        <f>ROW()</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A3" s="2">
-        <f>ROW()</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A4" s="2">
-        <f>ROW()</f>
-        <v>4</v>
-      </c>
+    <row r="1" spans="2:2" s="2" customFormat="1" ht="28.35" customHeight="1"/>
+    <row r="4" spans="2:2" ht="28.35" customHeight="1">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A5" s="2">
-        <f>ROW()</f>
-        <v>5</v>
-      </c>
+    <row r="5" spans="2:2" ht="28.35" customHeight="1">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A6" s="2">
-        <f>ROW()</f>
-        <v>6</v>
-      </c>
+    <row r="6" spans="2:2" ht="28.35" customHeight="1">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A7" s="2">
-        <f>ROW()</f>
-        <v>7</v>
-      </c>
+    <row r="7" spans="2:2" ht="28.35" customHeight="1">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A8" s="2">
-        <f>ROW()</f>
-        <v>8</v>
-      </c>
+    <row r="8" spans="2:2" ht="28.35" customHeight="1">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A9" s="2">
-        <f>ROW()</f>
-        <v>9</v>
-      </c>
+    <row r="9" spans="2:2" ht="28.35" customHeight="1">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A10" s="2">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
+    <row r="10" spans="2:2" ht="28.35" customHeight="1">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A11" s="2">
-        <f>ROW()</f>
-        <v>11</v>
-      </c>
+    <row r="11" spans="2:2" ht="28.35" customHeight="1">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A12" s="2">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
+    <row r="12" spans="2:2" ht="28.35" customHeight="1">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A13" s="2">
-        <f>ROW()</f>
-        <v>13</v>
-      </c>
+    <row r="13" spans="2:2" ht="28.35" customHeight="1">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A14" s="2">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
+    <row r="14" spans="2:2" ht="28.35" customHeight="1">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A15" s="2">
-        <f>ROW()</f>
-        <v>15</v>
-      </c>
+    <row r="15" spans="2:2" ht="28.35" customHeight="1">
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" ht="28.35" customHeight="1">
-      <c r="A16" s="2">
-        <f>ROW()</f>
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1184,6 +3926,7 @@
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
+    <oddHeader>&amp;C&amp;"-,굵게"&amp;16Information Architecture (Map)</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
@@ -1199,7 +3942,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1"/>
@@ -1336,6 +4079,9 @@
         <f>ROW()</f>
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:29" ht="28.35" customHeight="1">
       <c r="A4" s="2">
@@ -1343,6 +4089,9 @@
         <v>4</v>
       </c>
       <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:29" ht="28.35" customHeight="1">
       <c r="A5" s="2">
